--- a/frontend/kskcolle/public/data/erelijsten/quiz.xlsx
+++ b/frontend/kskcolle/public/data/erelijsten/quiz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a822bf281130dcc6/Documenten/Schaken/Website KSK Colle/_/erelijsten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvaer\Documents\KSKColle\frontend\kskcolle\public\data\erelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{BAD27FAE-0515-499B-9113-153F0D4C46A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F762D9C6-6BB8-4919-8558-B984D366F349}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906C2271-546F-4D66-8569-21CA361069F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nieuwjaarsquiz" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Jaar</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Kris Van der Coelden - Steven Van Dorselaere - Evi Smet</t>
+  </si>
+  <si>
+    <t>Van Goethem Jelle - Garré Sien - Ongena Niels - Aljosja Van der Straeten</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -892,8 +895,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>2026</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>